--- a/python/project/(업로드)c3_주요제조품 생산량(월별)_2304.xlsx
+++ b/python/project/(업로드)c3_주요제조품 생산량(월별)_2304.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\★2023년업무\(과제)●중국산업연구DB\월별통계 업로드+행안부 대응(2022~)\★통계 업로드-월별(일부)_220501부터나작성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTC-N26\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FC3A5-46C4-4DBE-8BAC-871699320017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1440" windowWidth="21750" windowHeight="15435"/>
+    <workbookView xWindow="4410" yWindow="240" windowWidth="22785" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -140,10 +142,6 @@
   </si>
   <si>
     <t>2020년 1월</t>
-  </si>
-  <si>
-    <t>2020년2월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2020년 3월</t>
@@ -453,43 +451,6 @@
     <t>2020년 12월</t>
   </si>
   <si>
-    <t>2021년1월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021년2월</t>
-  </si>
-  <si>
-    <t>2021년3월</t>
-  </si>
-  <si>
-    <t>2021년4월</t>
-  </si>
-  <si>
-    <t>2021년5월</t>
-  </si>
-  <si>
-    <t>2021년6월</t>
-  </si>
-  <si>
-    <t>2021년7월</t>
-  </si>
-  <si>
-    <t>2021년8월</t>
-  </si>
-  <si>
-    <t>2021년9월</t>
-  </si>
-  <si>
-    <t>2021년10월</t>
-  </si>
-  <si>
-    <t>2021년11월</t>
-  </si>
-  <si>
-    <t>2021년12월</t>
-  </si>
-  <si>
     <t>2022년 1월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,31 +490,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022년8월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년9월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반도체 당월 (억 장)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반도체 당월 (누계 억 장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년10월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년11월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년12월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,11 +509,83 @@
     <t>2023년 3월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2020년 2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 3월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 5월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 11월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 11월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -679,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,14 +720,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -722,22 +729,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -749,11 +750,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20076,14 +20074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="BD4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BR3" sqref="BR3"/>
+      <selection pane="bottomRight" activeCell="BP3" sqref="BP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20197,123 +20195,123 @@
         <v>32</v>
       </c>
       <c r="AG3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="AP3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AT3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AV3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BA3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4">
         <v>60.2</v>
@@ -20489,26 +20487,26 @@
       <c r="BK4" s="1">
         <v>30.2</v>
       </c>
-      <c r="BL4" s="10">
+      <c r="BL4" s="9">
         <v>32.1</v>
       </c>
-      <c r="BM4" s="11">
+      <c r="BM4" s="1">
         <v>31.8</v>
       </c>
-      <c r="BN4" s="11">
+      <c r="BN4" s="1">
         <v>33</v>
       </c>
-      <c r="BO4" s="11">
+      <c r="BO4" s="1">
         <v>34.700000000000003</v>
       </c>
       <c r="BQ4" s="5"/>
-      <c r="BR4" s="11">
+      <c r="BR4" s="1">
         <v>30.8</v>
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4">
         <v>216.8</v>
@@ -20690,7 +20688,7 @@
       <c r="BK5" s="1">
         <v>237.6</v>
       </c>
-      <c r="BL5" s="12">
+      <c r="BL5" s="10">
         <v>267.60000000000002</v>
       </c>
       <c r="BM5" s="1">
@@ -20711,7 +20709,7 @@
     </row>
     <row r="6" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4">
         <v>3.1</v>
@@ -20875,19 +20873,19 @@
       <c r="BG6" s="5">
         <v>-3.3</v>
       </c>
-      <c r="BH6" s="10">
+      <c r="BH6" s="9">
         <v>-6.2</v>
       </c>
-      <c r="BI6" s="12">
+      <c r="BI6" s="10">
         <v>-4.8</v>
       </c>
       <c r="BJ6" s="1">
         <v>-3.5</v>
       </c>
-      <c r="BK6" s="11">
+      <c r="BK6" s="1">
         <v>-9.6</v>
       </c>
-      <c r="BL6" s="12">
+      <c r="BL6" s="10">
         <v>-3.6</v>
       </c>
       <c r="BM6" s="5">
@@ -20906,7 +20904,7 @@
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4">
         <v>3.3</v>
@@ -21079,22 +21077,22 @@
       <c r="BH7" s="5">
         <v>-1.3</v>
       </c>
-      <c r="BI7" s="12">
+      <c r="BI7" s="10">
         <v>-2.5</v>
       </c>
       <c r="BJ7" s="1">
         <v>-3.3</v>
       </c>
-      <c r="BK7" s="11">
+      <c r="BK7" s="1">
         <v>-5</v>
       </c>
-      <c r="BL7" s="12">
+      <c r="BL7" s="10">
         <v>-5.5</v>
       </c>
-      <c r="BM7" s="11">
+      <c r="BM7" s="1">
         <v>-5.2</v>
       </c>
-      <c r="BN7" s="11">
+      <c r="BN7" s="1">
         <v>-6.1</v>
       </c>
       <c r="BO7" s="1">
@@ -21109,7 +21107,7 @@
     </row>
     <row r="8" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <v>435.5</v>
@@ -21282,16 +21280,16 @@
       <c r="BJ8" s="1">
         <v>556.29999999999995</v>
       </c>
-      <c r="BK8" s="12">
+      <c r="BK8" s="10">
         <v>558.6</v>
       </c>
-      <c r="BL8" s="12">
+      <c r="BL8" s="10">
         <v>579.6</v>
       </c>
-      <c r="BM8" s="11">
+      <c r="BM8" s="1">
         <v>579.20000000000005</v>
       </c>
-      <c r="BN8" s="11">
+      <c r="BN8" s="1">
         <v>550.9</v>
       </c>
       <c r="BO8" s="1">
@@ -21304,7 +21302,7 @@
     </row>
     <row r="9" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4">
         <v>1630.7</v>
@@ -21483,22 +21481,22 @@
       <c r="BJ9" s="1">
         <v>3917.1</v>
       </c>
-      <c r="BK9" s="10">
+      <c r="BK9" s="9">
         <v>4471.3</v>
       </c>
-      <c r="BL9" s="10">
+      <c r="BL9" s="9">
         <v>5050.6000000000004</v>
       </c>
-      <c r="BM9" s="11">
+      <c r="BM9" s="1">
         <v>5624.8</v>
       </c>
-      <c r="BN9" s="11">
+      <c r="BN9" s="1">
         <v>6176.6</v>
       </c>
       <c r="BO9" s="1">
         <v>6697.8</v>
       </c>
-      <c r="BQ9" s="11">
+      <c r="BQ9" s="1">
         <v>960.9</v>
       </c>
       <c r="BR9" s="1">
@@ -21507,7 +21505,7 @@
     </row>
     <row r="10" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4">
         <v>1.3</v>
@@ -21674,22 +21672,22 @@
       <c r="BH10" s="5">
         <v>-3.5</v>
       </c>
-      <c r="BI10" s="10">
+      <c r="BI10" s="9">
         <v>1.4</v>
       </c>
-      <c r="BJ10" s="13">
+      <c r="BJ10" s="11">
         <v>-7</v>
       </c>
-      <c r="BK10" s="10">
+      <c r="BK10" s="9">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="BL10" s="10">
+      <c r="BL10" s="9">
         <v>6.7</v>
       </c>
-      <c r="BM10" s="11">
+      <c r="BM10" s="1">
         <v>6.4</v>
       </c>
-      <c r="BN10" s="11">
+      <c r="BN10" s="1">
         <v>-4.3</v>
       </c>
       <c r="BO10" s="1">
@@ -21702,7 +21700,7 @@
     </row>
     <row r="11" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4">
         <v>5.9</v>
@@ -21884,19 +21882,19 @@
       <c r="BK11" s="1">
         <v>1.2</v>
       </c>
-      <c r="BL11" s="10">
+      <c r="BL11" s="9">
         <v>-0.3</v>
       </c>
-      <c r="BM11" s="11">
+      <c r="BM11" s="1">
         <v>0.4</v>
       </c>
-      <c r="BN11" s="11">
+      <c r="BN11" s="1">
         <v>-0.1</v>
       </c>
       <c r="BO11" s="1">
         <v>-1</v>
       </c>
-      <c r="BQ11" s="11">
+      <c r="BQ11" s="1">
         <v>-6</v>
       </c>
       <c r="BR11" s="1">
@@ -21905,7 +21903,7 @@
     </row>
     <row r="12" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4">
         <v>149.6</v>
@@ -22075,22 +22073,22 @@
       <c r="BI12" s="5">
         <v>240.2</v>
       </c>
-      <c r="BJ12" s="13">
+      <c r="BJ12" s="11">
         <v>224.3</v>
       </c>
-      <c r="BK12" s="14">
+      <c r="BK12" s="5">
         <v>222</v>
       </c>
-      <c r="BL12" s="10">
+      <c r="BL12" s="9">
         <v>244.5</v>
       </c>
-      <c r="BM12" s="14">
+      <c r="BM12" s="5">
         <v>261.3</v>
       </c>
-      <c r="BN12" s="14">
+      <c r="BN12" s="5">
         <v>250.9</v>
       </c>
-      <c r="BO12" s="11">
+      <c r="BO12" s="1">
         <v>264.7</v>
       </c>
       <c r="BQ12" s="5"/>
@@ -22100,7 +22098,7 @@
     </row>
     <row r="13" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4">
         <v>612.29999999999995</v>
@@ -22273,22 +22271,22 @@
       <c r="BH13" s="5">
         <v>1199.2</v>
       </c>
-      <c r="BI13" s="10">
+      <c r="BI13" s="9">
         <v>1439.3</v>
       </c>
-      <c r="BJ13" s="13">
+      <c r="BJ13" s="11">
         <v>1615.9</v>
       </c>
-      <c r="BK13" s="14">
+      <c r="BK13" s="5">
         <v>1837.9</v>
       </c>
-      <c r="BL13" s="10">
+      <c r="BL13" s="9">
         <v>2120.6999999999998</v>
       </c>
-      <c r="BM13" s="14">
+      <c r="BM13" s="5">
         <v>2382.1</v>
       </c>
-      <c r="BN13" s="10">
+      <c r="BN13" s="9">
         <v>2632.8</v>
       </c>
       <c r="BO13" s="1">
@@ -22303,7 +22301,7 @@
     </row>
     <row r="14" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4">
         <v>1.1000000000000001</v>
@@ -22467,28 +22465,28 @@
       <c r="BG14" s="5">
         <v>-1.3</v>
       </c>
-      <c r="BH14" s="10">
+      <c r="BH14" s="9">
         <v>2.9</v>
       </c>
       <c r="BI14" s="5">
         <v>-1.3</v>
       </c>
-      <c r="BJ14" s="13">
+      <c r="BJ14" s="11">
         <v>-9.1</v>
       </c>
-      <c r="BK14" s="14">
+      <c r="BK14" s="5">
         <v>-8.6</v>
       </c>
-      <c r="BL14" s="10">
+      <c r="BL14" s="9">
         <v>1.9</v>
       </c>
-      <c r="BM14" s="14">
+      <c r="BM14" s="5">
         <v>5.5</v>
       </c>
-      <c r="BN14" s="14">
+      <c r="BN14" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BO14" s="11">
+      <c r="BO14" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="BQ14" s="5"/>
@@ -22498,7 +22496,7 @@
     </row>
     <row r="15" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4">
         <v>-3.7</v>
@@ -22674,25 +22672,25 @@
       <c r="BI15" s="5">
         <v>1.4</v>
       </c>
-      <c r="BJ15" s="13">
+      <c r="BJ15" s="11">
         <v>-1.4</v>
       </c>
-      <c r="BK15" s="14">
+      <c r="BK15" s="5">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="BL15" s="10">
+      <c r="BL15" s="9">
         <v>-2.6</v>
       </c>
-      <c r="BM15" s="14">
+      <c r="BM15" s="5">
         <v>-1.8</v>
       </c>
-      <c r="BN15" s="14">
+      <c r="BN15" s="5">
         <v>-1.5</v>
       </c>
-      <c r="BO15" s="11">
+      <c r="BO15" s="1">
         <v>-1</v>
       </c>
-      <c r="BQ15" s="11">
+      <c r="BQ15" s="1">
         <v>-1.7</v>
       </c>
       <c r="BR15" s="1">
@@ -22701,7 +22699,7 @@
     </row>
     <row r="16" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4">
         <v>708.4</v>
@@ -22871,22 +22869,22 @@
       <c r="BI16" s="5">
         <v>940.5</v>
       </c>
-      <c r="BJ16" s="13">
+      <c r="BJ16" s="11">
         <v>893.7</v>
       </c>
-      <c r="BK16" s="14">
+      <c r="BK16" s="5">
         <v>894.4</v>
       </c>
-      <c r="BL16" s="10">
+      <c r="BL16" s="9">
         <v>961.9</v>
       </c>
-      <c r="BM16" s="14">
+      <c r="BM16" s="5">
         <v>966</v>
       </c>
       <c r="BN16" s="5">
         <v>978.6</v>
       </c>
-      <c r="BO16" s="11">
+      <c r="BO16" s="1">
         <v>1012.9</v>
       </c>
       <c r="BQ16" s="5"/>
@@ -22896,7 +22894,7 @@
     </row>
     <row r="17" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4">
         <v>2833.9</v>
@@ -23072,34 +23070,34 @@
       <c r="BI17" s="5">
         <v>5627</v>
       </c>
-      <c r="BJ17" s="13">
+      <c r="BJ17" s="11">
         <v>6478.2</v>
       </c>
-      <c r="BK17" s="14">
+      <c r="BK17" s="5">
         <v>7378</v>
       </c>
-      <c r="BL17" s="12">
+      <c r="BL17" s="10">
         <v>8406.2999999999993</v>
       </c>
-      <c r="BM17" s="14">
+      <c r="BM17" s="5">
         <v>9373.1</v>
       </c>
       <c r="BN17" s="5">
         <v>10348.6</v>
       </c>
-      <c r="BO17" s="11">
+      <c r="BO17" s="1">
         <v>11366.9</v>
       </c>
-      <c r="BQ17" s="11">
+      <c r="BQ17" s="1">
         <v>1860.7</v>
       </c>
-      <c r="BR17" s="10">
+      <c r="BR17" s="9">
         <v>2842</v>
       </c>
     </row>
     <row r="18" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="4">
         <v>4.5</v>
@@ -23269,32 +23267,32 @@
       <c r="BI18" s="5">
         <v>-0.6</v>
       </c>
-      <c r="BJ18" s="13">
+      <c r="BJ18" s="11">
         <v>-1.4</v>
       </c>
-      <c r="BK18" s="14">
+      <c r="BK18" s="5">
         <v>-2.6</v>
       </c>
-      <c r="BL18" s="10">
+      <c r="BL18" s="9">
         <v>7.7</v>
       </c>
-      <c r="BM18" s="14">
+      <c r="BM18" s="5">
         <v>4.7</v>
       </c>
       <c r="BN18" s="5">
         <v>2.4</v>
       </c>
-      <c r="BO18" s="11">
+      <c r="BO18" s="1">
         <v>1.2</v>
       </c>
       <c r="BQ18" s="5"/>
-      <c r="BR18" s="12">
+      <c r="BR18" s="10">
         <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4">
         <v>4.9000000000000004</v>
@@ -23470,34 +23468,34 @@
       <c r="BI19" s="5">
         <v>1</v>
       </c>
-      <c r="BJ19" s="13">
+      <c r="BJ19" s="11">
         <v>0.7</v>
       </c>
-      <c r="BK19" s="14">
+      <c r="BK19" s="5">
         <v>0.6</v>
       </c>
-      <c r="BL19" s="10">
+      <c r="BL19" s="9">
         <v>1.6</v>
       </c>
-      <c r="BM19" s="14">
+      <c r="BM19" s="5">
         <v>1.8</v>
       </c>
       <c r="BN19" s="5">
         <v>1.6</v>
       </c>
-      <c r="BO19" s="11">
+      <c r="BO19" s="1">
         <v>1.5</v>
       </c>
-      <c r="BQ19" s="11">
+      <c r="BQ19" s="1">
         <v>0.9</v>
       </c>
-      <c r="BR19" s="11">
+      <c r="BR19" s="1">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="4">
         <v>647.20000000000005</v>
@@ -23661,38 +23659,38 @@
       <c r="BG20" s="5">
         <v>661.6</v>
       </c>
-      <c r="BH20" s="12">
+      <c r="BH20" s="10">
         <v>688.8</v>
       </c>
       <c r="BI20" s="5">
         <v>699.6</v>
       </c>
-      <c r="BJ20" s="15">
+      <c r="BJ20" s="12">
         <v>642.20000000000005</v>
       </c>
-      <c r="BK20" s="14">
+      <c r="BK20" s="5">
         <v>644.1</v>
       </c>
-      <c r="BL20" s="12">
+      <c r="BL20" s="10">
         <v>692</v>
       </c>
-      <c r="BM20" s="14">
+      <c r="BM20" s="5">
         <v>668.5</v>
       </c>
       <c r="BN20" s="5">
         <v>697.8</v>
       </c>
-      <c r="BO20" s="11">
+      <c r="BO20" s="1">
         <v>718.3</v>
       </c>
       <c r="BQ20" s="5"/>
-      <c r="BR20" s="11">
+      <c r="BR20" s="1">
         <v>732.9</v>
       </c>
     </row>
     <row r="21" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4">
         <v>2385.8000000000002</v>
@@ -23868,34 +23866,34 @@
       <c r="BI21" s="5">
         <v>3821.5</v>
       </c>
-      <c r="BJ21" s="13">
+      <c r="BJ21" s="11">
         <v>4443.2</v>
       </c>
-      <c r="BK21" s="14">
+      <c r="BK21" s="5">
         <v>5054.7</v>
       </c>
-      <c r="BL21" s="10">
+      <c r="BL21" s="9">
         <v>5760.7</v>
       </c>
-      <c r="BM21" s="14">
+      <c r="BM21" s="5">
         <v>6400.6</v>
       </c>
       <c r="BN21" s="5">
         <v>7083.3</v>
       </c>
-      <c r="BO21" s="11">
+      <c r="BO21" s="1">
         <v>7771.6</v>
       </c>
-      <c r="BQ21" s="11">
+      <c r="BQ21" s="1">
         <v>1116.8</v>
       </c>
-      <c r="BR21" s="11">
+      <c r="BR21" s="1">
         <v>1838.6</v>
       </c>
     </row>
     <row r="22" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="4">
         <v>0.9</v>
@@ -24065,32 +24063,32 @@
       <c r="BI22" s="5">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="BJ22" s="13">
+      <c r="BJ22" s="11">
         <v>-6.7</v>
       </c>
-      <c r="BK22" s="14">
+      <c r="BK22" s="5">
         <v>-6.9</v>
       </c>
-      <c r="BL22" s="10">
+      <c r="BL22" s="9">
         <v>-2</v>
       </c>
-      <c r="BM22" s="14">
+      <c r="BM22" s="5">
         <v>-3.7</v>
       </c>
       <c r="BN22" s="5">
         <v>-6.1</v>
       </c>
-      <c r="BO22" s="11">
+      <c r="BO22" s="1">
         <v>-10.5</v>
       </c>
       <c r="BQ22" s="5"/>
-      <c r="BR22" s="11">
+      <c r="BR22" s="1">
         <v>-2.1</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="4">
         <v>4.7</v>
@@ -24266,34 +24264,34 @@
       <c r="BI23" s="5">
         <v>-3.2</v>
       </c>
-      <c r="BJ23" s="13">
+      <c r="BJ23" s="11">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="BK23" s="14">
+      <c r="BK23" s="5">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="BL23" s="10">
+      <c r="BL23" s="9">
         <v>-4.2</v>
       </c>
-      <c r="BM23" s="14">
+      <c r="BM23" s="5">
         <v>-4.2</v>
       </c>
       <c r="BN23" s="5">
         <v>-3.9</v>
       </c>
-      <c r="BO23" s="11">
+      <c r="BO23" s="1">
         <v>-4.3</v>
       </c>
-      <c r="BQ23" s="11">
+      <c r="BQ23" s="1">
         <v>-7.4</v>
       </c>
-      <c r="BR23" s="11">
+      <c r="BR23" s="1">
         <v>-2.6</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="4">
         <v>6257.7</v>
@@ -24463,32 +24461,32 @@
       <c r="BI24" s="5">
         <v>7687.5</v>
       </c>
-      <c r="BJ24" s="13">
+      <c r="BJ24" s="11">
         <v>7048.6</v>
       </c>
-      <c r="BK24" s="14">
+      <c r="BK24" s="5">
         <v>7137.4</v>
       </c>
-      <c r="BL24" s="12">
+      <c r="BL24" s="10">
         <v>7393.9</v>
       </c>
-      <c r="BM24" s="14">
+      <c r="BM24" s="5">
         <v>7082.9</v>
       </c>
       <c r="BN24" s="5">
         <v>6798.6</v>
       </c>
-      <c r="BO24" s="11">
+      <c r="BO24" s="1">
         <v>6899.8</v>
       </c>
       <c r="BQ24" s="5"/>
-      <c r="BR24" s="11">
+      <c r="BR24" s="1">
         <v>7806.8</v>
       </c>
     </row>
     <row r="25" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4">
         <v>23821.4</v>
@@ -24664,34 +24662,34 @@
       <c r="BI25" s="5">
         <v>43892.7</v>
       </c>
-      <c r="BJ25" s="16">
+      <c r="BJ25" s="13">
         <v>51089.7</v>
       </c>
-      <c r="BK25" s="14">
+      <c r="BK25" s="5">
         <v>58217.1</v>
       </c>
-      <c r="BL25" s="10">
+      <c r="BL25" s="9">
         <v>65610.399999999994</v>
       </c>
-      <c r="BM25" s="14">
+      <c r="BM25" s="5">
         <v>72689.2</v>
       </c>
       <c r="BN25" s="5">
         <v>79505.7</v>
       </c>
-      <c r="BO25" s="11">
+      <c r="BO25" s="1">
         <v>86382.8</v>
       </c>
-      <c r="BQ25" s="11">
+      <c r="BQ25" s="1">
         <v>14426.1</v>
       </c>
-      <c r="BR25" s="10">
+      <c r="BR25" s="9">
         <v>21983.200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4">
         <v>5.4</v>
@@ -24861,32 +24859,32 @@
       <c r="BI26" s="5">
         <v>0.5</v>
       </c>
-      <c r="BJ26" s="16">
+      <c r="BJ26" s="13">
         <v>-3.6</v>
       </c>
-      <c r="BK26" s="14">
+      <c r="BK26" s="5">
         <v>-0.5</v>
       </c>
-      <c r="BL26" s="12">
+      <c r="BL26" s="10">
         <v>13</v>
       </c>
-      <c r="BM26" s="14">
+      <c r="BM26" s="5">
         <v>11.9</v>
       </c>
       <c r="BN26" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="BO26" s="11">
+      <c r="BO26" s="1">
         <v>-4.5999999999999996</v>
       </c>
       <c r="BQ26" s="5"/>
-      <c r="BR26" s="11">
+      <c r="BR26" s="1">
         <v>7.3</v>
       </c>
     </row>
     <row r="27" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4">
         <v>4.2</v>
@@ -25062,35 +25060,35 @@
       <c r="BI27" s="5">
         <v>-4.7</v>
       </c>
-      <c r="BJ27" s="16">
+      <c r="BJ27" s="13">
         <v>-4.5</v>
       </c>
       <c r="BK27" s="1">
         <f>-4.1</f>
         <v>-4.0999999999999996</v>
       </c>
-      <c r="BL27" s="10">
+      <c r="BL27" s="9">
         <v>-2.5</v>
       </c>
-      <c r="BM27" s="11">
+      <c r="BM27" s="1">
         <v>-1.2</v>
       </c>
       <c r="BN27" s="5">
         <v>-0.4</v>
       </c>
-      <c r="BO27" s="11">
+      <c r="BO27" s="1">
         <v>-0.8</v>
       </c>
-      <c r="BQ27" s="11">
+      <c r="BQ27" s="1">
         <v>7.3</v>
       </c>
-      <c r="BR27" s="11">
+      <c r="BR27" s="1">
         <v>7.6</v>
       </c>
     </row>
     <row r="28" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4">
         <v>7277.7</v>
@@ -25260,32 +25258,32 @@
       <c r="BI28" s="5">
         <v>9073</v>
       </c>
-      <c r="BJ28" s="17">
+      <c r="BJ28" s="14">
         <v>8142.9</v>
       </c>
       <c r="BK28" s="5">
         <v>8386.7999999999993</v>
       </c>
-      <c r="BL28" s="18">
+      <c r="BL28" s="15">
         <v>8694.9</v>
       </c>
-      <c r="BM28" s="14">
+      <c r="BM28" s="5">
         <v>7975.9</v>
       </c>
       <c r="BN28" s="5">
         <v>7454.4</v>
       </c>
-      <c r="BO28" s="11">
+      <c r="BO28" s="1">
         <v>7788.9</v>
       </c>
       <c r="BQ28" s="5"/>
-      <c r="BR28" s="11">
+      <c r="BR28" s="1">
         <v>9572.6</v>
       </c>
     </row>
     <row r="29" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4">
         <v>27387</v>
@@ -25461,34 +25459,34 @@
       <c r="BI29" s="5">
         <v>52687.7</v>
       </c>
-      <c r="BJ29" s="13">
+      <c r="BJ29" s="11">
         <v>60928</v>
       </c>
-      <c r="BK29" s="14">
+      <c r="BK29" s="5">
         <v>69314.899999999994</v>
       </c>
-      <c r="BL29" s="10">
+      <c r="BL29" s="9">
         <v>78083.3</v>
       </c>
-      <c r="BM29" s="14">
+      <c r="BM29" s="5">
         <v>86056.9</v>
       </c>
       <c r="BN29" s="5">
         <v>93511.3</v>
       </c>
-      <c r="BO29" s="11">
+      <c r="BO29" s="1">
         <v>101300.3</v>
       </c>
-      <c r="BQ29" s="11">
+      <c r="BQ29" s="1">
         <v>16869.599999999999</v>
       </c>
-      <c r="BR29" s="11">
+      <c r="BR29" s="1">
         <v>26155.599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4">
         <v>4.9000000000000004</v>
@@ -25658,32 +25656,32 @@
       <c r="BI30" s="5">
         <v>-3.3</v>
       </c>
-      <c r="BJ30" s="13">
+      <c r="BJ30" s="11">
         <v>-6.4</v>
       </c>
-      <c r="BK30" s="14">
+      <c r="BK30" s="5">
         <v>0.5</v>
       </c>
-      <c r="BL30" s="10">
+      <c r="BL30" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="BM30" s="14">
+      <c r="BM30" s="5">
         <v>11</v>
       </c>
       <c r="BN30" s="5">
         <v>7.3</v>
       </c>
-      <c r="BO30" s="11">
+      <c r="BO30" s="1">
         <v>-9.8000000000000007</v>
       </c>
       <c r="BQ30" s="5"/>
-      <c r="BR30" s="11">
+      <c r="BR30" s="1">
         <v>6.9</v>
       </c>
     </row>
     <row r="31" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4">
         <v>4.5999999999999996</v>
@@ -25859,34 +25857,34 @@
       <c r="BI31" s="5">
         <v>-6.5</v>
       </c>
-      <c r="BJ31" s="16">
+      <c r="BJ31" s="13">
         <v>-6.4</v>
       </c>
-      <c r="BK31" s="14">
+      <c r="BK31" s="5">
         <v>-5.7</v>
       </c>
-      <c r="BL31" s="12">
+      <c r="BL31" s="10">
         <v>-3.4</v>
       </c>
-      <c r="BM31" s="14">
+      <c r="BM31" s="5">
         <v>-2.2000000000000002</v>
       </c>
       <c r="BN31" s="5">
         <v>-1.4</v>
       </c>
-      <c r="BO31" s="11">
+      <c r="BO31" s="1">
         <v>-2.1</v>
       </c>
-      <c r="BQ31" s="11">
+      <c r="BQ31" s="1">
         <v>5.6</v>
       </c>
-      <c r="BR31" s="11">
+      <c r="BR31" s="1">
         <v>6.1</v>
       </c>
     </row>
     <row r="32" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B32" s="4">
         <v>9489.7999999999993</v>
@@ -26056,32 +26054,32 @@
       <c r="BI32" s="5">
         <v>11841.7</v>
       </c>
-      <c r="BJ32" s="16">
+      <c r="BJ32" s="13">
         <v>10624.2</v>
       </c>
-      <c r="BK32" s="14">
+      <c r="BK32" s="5">
         <v>10832.9</v>
       </c>
-      <c r="BL32" s="10">
+      <c r="BL32" s="9">
         <v>11618.8</v>
       </c>
-      <c r="BM32" s="14">
+      <c r="BM32" s="5">
         <v>11484.7</v>
       </c>
       <c r="BN32" s="5">
         <v>10918.6</v>
       </c>
-      <c r="BO32" s="13">
+      <c r="BO32" s="11">
         <v>11193.4</v>
       </c>
       <c r="BQ32" s="5"/>
-      <c r="BR32" s="11">
+      <c r="BR32" s="1">
         <v>12724.7</v>
       </c>
     </row>
     <row r="33" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4">
         <v>35782.699999999997</v>
@@ -26257,34 +26255,34 @@
       <c r="BI33" s="5">
         <v>66714.399999999994</v>
       </c>
-      <c r="BJ33" s="13">
+      <c r="BJ33" s="11">
         <v>77650</v>
       </c>
-      <c r="BK33" s="14">
+      <c r="BK33" s="5">
         <v>88464.7</v>
       </c>
-      <c r="BL33" s="12">
+      <c r="BL33" s="10">
         <v>100584.5</v>
       </c>
-      <c r="BM33" s="14">
+      <c r="BM33" s="5">
         <v>111638.9</v>
       </c>
       <c r="BN33" s="5">
         <v>122552.7</v>
       </c>
-      <c r="BO33" s="11">
+      <c r="BO33" s="1">
         <v>134033.5</v>
       </c>
-      <c r="BQ33" s="11">
+      <c r="BQ33" s="1">
         <v>20622.5</v>
       </c>
-      <c r="BR33" s="11">
+      <c r="BR33" s="1">
         <v>33259.4</v>
       </c>
     </row>
     <row r="34" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="4">
         <v>0.5</v>
@@ -26454,32 +26452,32 @@
       <c r="BI34" s="5">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="BJ34" s="13">
+      <c r="BJ34" s="11">
         <v>-5.2</v>
       </c>
-      <c r="BK34" s="14">
+      <c r="BK34" s="5">
         <v>-1.5</v>
       </c>
-      <c r="BL34" s="12">
+      <c r="BL34" s="10">
         <v>12.5</v>
       </c>
-      <c r="BM34" s="14">
+      <c r="BM34" s="5">
         <v>11.3</v>
       </c>
       <c r="BN34" s="5">
         <v>7.1</v>
       </c>
-      <c r="BO34" s="11">
+      <c r="BO34" s="1">
         <v>-2.6</v>
       </c>
       <c r="BQ34" s="5"/>
-      <c r="BR34" s="11">
+      <c r="BR34" s="1">
         <v>8.1</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4">
         <v>1.7</v>
@@ -26655,34 +26653,34 @@
       <c r="BI35" s="5">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="BJ35" s="13">
+      <c r="BJ35" s="11">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="BK35" s="14">
+      <c r="BK35" s="5">
         <v>-4.3</v>
       </c>
-      <c r="BL35" s="12">
+      <c r="BL35" s="10">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="BM35" s="14">
+      <c r="BM35" s="5">
         <v>-1.4</v>
       </c>
       <c r="BN35" s="5">
         <v>-0.7</v>
       </c>
-      <c r="BO35" s="11">
+      <c r="BO35" s="1">
         <v>-0.8</v>
       </c>
-      <c r="BQ35" s="20">
+      <c r="BQ35" s="16">
         <v>3.6</v>
       </c>
-      <c r="BR35" s="11">
+      <c r="BR35" s="1">
         <v>5.8</v>
       </c>
     </row>
     <row r="36" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4">
         <v>451</v>
@@ -26852,32 +26850,32 @@
       <c r="BI36" s="5">
         <v>569.70000000000005</v>
       </c>
-      <c r="BJ36" s="17">
+      <c r="BJ36" s="14">
         <v>562.79999999999995</v>
       </c>
-      <c r="BK36" s="14">
+      <c r="BK36" s="5">
         <v>573.6</v>
       </c>
-      <c r="BL36" s="10">
+      <c r="BL36" s="9">
         <v>578.29999999999995</v>
       </c>
-      <c r="BM36" s="14">
+      <c r="BM36" s="5">
         <v>585.20000000000005</v>
       </c>
       <c r="BN36" s="5">
         <v>588.1</v>
       </c>
-      <c r="BO36" s="11">
+      <c r="BO36" s="1">
         <v>594.6</v>
       </c>
       <c r="BQ36" s="5"/>
-      <c r="BR36" s="11">
+      <c r="BR36" s="1">
         <v>627.6</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4">
         <v>1799.6</v>
@@ -27053,34 +27051,34 @@
       <c r="BI37" s="5">
         <v>3283.3</v>
       </c>
-      <c r="BJ37" s="13">
+      <c r="BJ37" s="11">
         <v>3829.6</v>
       </c>
       <c r="BK37" s="5">
         <v>4399.5</v>
       </c>
-      <c r="BL37" s="10">
+      <c r="BL37" s="9">
         <v>4982.8</v>
       </c>
-      <c r="BM37" s="14">
+      <c r="BM37" s="5">
         <v>5575.3</v>
       </c>
       <c r="BN37" s="5">
         <v>6180.8</v>
       </c>
-      <c r="BO37" s="11">
+      <c r="BO37" s="1">
         <v>6774.3</v>
       </c>
-      <c r="BQ37" s="11">
+      <c r="BQ37" s="1">
         <v>1192</v>
       </c>
-      <c r="BR37" s="10">
+      <c r="BR37" s="9">
         <v>1826.3</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="4">
         <v>5</v>
@@ -27250,32 +27248,32 @@
       <c r="BI38" s="5">
         <v>3.2</v>
       </c>
-      <c r="BJ38" s="13">
+      <c r="BJ38" s="11">
         <v>4.8</v>
       </c>
-      <c r="BK38" s="14">
+      <c r="BK38" s="5">
         <v>6.7</v>
       </c>
-      <c r="BL38" s="19">
+      <c r="BL38" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="BM38" s="14">
+      <c r="BM38" s="5">
         <v>10.1</v>
       </c>
       <c r="BN38" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="BO38" s="11">
+      <c r="BO38" s="1">
         <v>7.3</v>
       </c>
       <c r="BQ38" s="5"/>
-      <c r="BR38" s="11">
+      <c r="BR38" s="1">
         <v>6.9</v>
       </c>
     </row>
     <row r="39" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="4">
         <v>8.1</v>
@@ -27448,37 +27446,37 @@
       <c r="BH39" s="5">
         <v>0.9</v>
       </c>
-      <c r="BI39" s="20">
+      <c r="BI39" s="16">
         <v>1</v>
       </c>
       <c r="BJ39" s="1">
         <v>1.4</v>
       </c>
-      <c r="BK39" s="11">
+      <c r="BK39" s="1">
         <v>1.9</v>
       </c>
-      <c r="BL39" s="19">
+      <c r="BL39" s="10">
         <v>2.8</v>
       </c>
-      <c r="BM39" s="11">
+      <c r="BM39" s="1">
         <v>3.3</v>
       </c>
       <c r="BN39" s="5">
         <v>4.2</v>
       </c>
-      <c r="BO39" s="11">
+      <c r="BO39" s="1">
         <v>4.3</v>
       </c>
-      <c r="BQ39" s="11">
+      <c r="BQ39" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="BR39" s="11">
+      <c r="BR39" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="4">
         <v>7.2</v>
@@ -27648,32 +27646,32 @@
       <c r="BI40" s="5">
         <v>5.3</v>
       </c>
-      <c r="BJ40" s="13">
+      <c r="BJ40" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BK40" s="14">
+      <c r="BK40" s="5">
         <v>4.5</v>
       </c>
-      <c r="BL40" s="12">
+      <c r="BL40" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="BM40" s="14">
+      <c r="BM40" s="5">
         <v>4.3</v>
       </c>
       <c r="BN40" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BO40" s="11">
+      <c r="BO40" s="1">
         <v>5.3</v>
       </c>
       <c r="BQ40" s="5"/>
-      <c r="BR40" s="11">
+      <c r="BR40" s="1">
         <v>6.3</v>
       </c>
     </row>
     <row r="41" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="4">
         <v>25.6</v>
@@ -27843,40 +27841,40 @@
       <c r="BG41" s="5">
         <v>18.2</v>
       </c>
-      <c r="BH41" s="10">
+      <c r="BH41" s="9">
         <v>23.2</v>
       </c>
       <c r="BI41" s="5">
         <v>29</v>
       </c>
-      <c r="BJ41" s="13">
+      <c r="BJ41" s="11">
         <v>33.1</v>
       </c>
-      <c r="BK41" s="14">
+      <c r="BK41" s="5">
         <v>37.5</v>
       </c>
-      <c r="BL41" s="19">
+      <c r="BL41" s="10">
         <v>41.6</v>
       </c>
-      <c r="BM41" s="14">
+      <c r="BM41" s="5">
         <v>47.1</v>
       </c>
       <c r="BN41" s="5">
         <v>52</v>
       </c>
-      <c r="BO41" s="11">
+      <c r="BO41" s="1">
         <v>57.2</v>
       </c>
-      <c r="BQ41" s="11">
+      <c r="BQ41" s="1">
         <v>7.5</v>
       </c>
-      <c r="BR41" s="11">
+      <c r="BR41" s="1">
         <v>13.8</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="4">
         <v>12.5</v>
@@ -28046,32 +28044,32 @@
       <c r="BI42" s="5">
         <v>-11.7</v>
       </c>
-      <c r="BJ42" s="13">
+      <c r="BJ42" s="11">
         <v>-14.8</v>
       </c>
       <c r="BK42" s="5">
         <v>-13.5</v>
       </c>
-      <c r="BL42" s="12">
+      <c r="BL42" s="10">
         <v>-12</v>
       </c>
-      <c r="BM42" s="14">
+      <c r="BM42" s="5">
         <v>-8.5</v>
       </c>
       <c r="BN42" s="5">
         <v>-13.2</v>
       </c>
-      <c r="BO42" s="11">
+      <c r="BO42" s="1">
         <v>-11.7</v>
       </c>
       <c r="BQ42" s="5"/>
-      <c r="BR42" s="11">
+      <c r="BR42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="4">
         <v>5.8</v>
@@ -28247,34 +28245,34 @@
       <c r="BI43" s="5">
         <v>-7.3</v>
       </c>
-      <c r="BJ43" s="13">
+      <c r="BJ43" s="11">
         <v>-10.1</v>
       </c>
-      <c r="BK43" s="14">
+      <c r="BK43" s="5">
         <v>-10.5</v>
       </c>
-      <c r="BL43" s="12">
+      <c r="BL43" s="10">
         <v>-11.1</v>
       </c>
-      <c r="BM43" s="10">
+      <c r="BM43" s="9">
         <v>-12.5</v>
       </c>
       <c r="BN43" s="5">
         <v>-12.5</v>
       </c>
-      <c r="BO43" s="11">
+      <c r="BO43" s="1">
         <v>-13.1</v>
       </c>
       <c r="BQ43" s="5">
         <v>-11.8</v>
       </c>
-      <c r="BR43" s="11">
+      <c r="BR43" s="1">
         <v>-6.8</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="4">
         <v>10.199999999999999</v>
@@ -28444,32 +28442,32 @@
       <c r="BI44" s="5">
         <v>1.4</v>
       </c>
-      <c r="BJ44" s="15">
+      <c r="BJ44" s="12">
         <v>1.3</v>
       </c>
-      <c r="BK44" s="14">
+      <c r="BK44" s="5">
         <v>1.3</v>
       </c>
-      <c r="BL44" s="12">
+      <c r="BL44" s="10">
         <v>1.3</v>
       </c>
-      <c r="BM44" s="18">
+      <c r="BM44" s="15">
         <v>1.5</v>
       </c>
       <c r="BN44" s="5">
         <v>1.6</v>
       </c>
-      <c r="BO44" s="11">
+      <c r="BO44" s="1">
         <v>1.4</v>
       </c>
       <c r="BQ44" s="5"/>
-      <c r="BR44" s="11">
+      <c r="BR44" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="4">
         <v>41.1</v>
@@ -28639,40 +28637,40 @@
       <c r="BG45" s="5">
         <v>5.8</v>
       </c>
-      <c r="BH45" s="10">
+      <c r="BH45" s="9">
         <v>7.2</v>
       </c>
       <c r="BI45" s="5">
         <v>8.6</v>
       </c>
-      <c r="BJ45" s="17">
+      <c r="BJ45" s="14">
         <v>9.8000000000000007</v>
       </c>
-      <c r="BK45" s="14">
+      <c r="BK45" s="5">
         <v>11.1</v>
       </c>
-      <c r="BL45" s="12">
+      <c r="BL45" s="10">
         <v>12.4</v>
       </c>
-      <c r="BM45" s="14">
+      <c r="BM45" s="5">
         <v>13.9</v>
       </c>
       <c r="BN45" s="5">
         <v>15.5</v>
       </c>
-      <c r="BO45" s="11">
+      <c r="BO45" s="1">
         <v>17</v>
       </c>
       <c r="BQ45" s="5">
         <v>2.9</v>
       </c>
-      <c r="BR45" s="11">
+      <c r="BR45" s="1">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="4">
         <v>-8.9</v>
@@ -28842,32 +28840,32 @@
       <c r="BI46" s="5">
         <v>-22.2</v>
       </c>
-      <c r="BJ46" s="13">
+      <c r="BJ46" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="BK46" s="14">
+      <c r="BK46" s="5">
         <v>-7.1</v>
       </c>
-      <c r="BL46" s="12">
+      <c r="BL46" s="10">
         <v>0</v>
       </c>
-      <c r="BM46" s="14">
+      <c r="BM46" s="5">
         <v>0</v>
       </c>
       <c r="BN46" s="5">
         <v>0</v>
       </c>
-      <c r="BO46" s="13">
+      <c r="BO46" s="11">
         <v>-17.600000000000001</v>
       </c>
       <c r="BQ46" s="5"/>
-      <c r="BR46" s="11">
+      <c r="BR46" s="1">
         <v>29.4</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="4">
         <v>-8.1</v>
@@ -29043,34 +29041,34 @@
       <c r="BI47" s="5">
         <v>-17.3</v>
       </c>
-      <c r="BJ47" s="13">
+      <c r="BJ47" s="11">
         <v>-15.5</v>
       </c>
-      <c r="BK47" s="14">
+      <c r="BK47" s="5">
         <v>-14.6</v>
       </c>
-      <c r="BL47" s="12">
+      <c r="BL47" s="10">
         <v>-13.9</v>
       </c>
-      <c r="BM47" s="14">
+      <c r="BM47" s="5">
         <v>-12.6</v>
       </c>
       <c r="BN47" s="5">
         <v>-11.4</v>
       </c>
-      <c r="BO47" s="11">
+      <c r="BO47" s="1">
         <v>-11.5</v>
       </c>
-      <c r="BQ47" s="11">
+      <c r="BQ47" s="1">
         <v>26.1</v>
       </c>
-      <c r="BR47" s="11">
+      <c r="BR47" s="1">
         <v>27.5</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="4">
         <v>36538</v>
@@ -29240,32 +29238,32 @@
       <c r="BI48" s="5">
         <v>36774</v>
       </c>
-      <c r="BJ48" s="13">
+      <c r="BJ48" s="11">
         <v>32549.3</v>
       </c>
-      <c r="BK48" s="14">
+      <c r="BK48" s="5">
         <v>53049.599999999999</v>
       </c>
-      <c r="BL48" s="10">
+      <c r="BL48" s="9">
         <v>40174</v>
       </c>
-      <c r="BM48" s="14">
+      <c r="BM48" s="5">
         <v>39240</v>
       </c>
       <c r="BN48" s="5">
         <v>50512.3</v>
       </c>
-      <c r="BO48" s="11">
+      <c r="BO48" s="1">
         <v>63269</v>
       </c>
       <c r="BQ48" s="5"/>
-      <c r="BR48" s="11">
+      <c r="BR48" s="1">
         <v>44434</v>
       </c>
     </row>
     <row r="49" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="4">
         <v>128432</v>
@@ -29441,34 +29439,34 @@
       <c r="BI49" s="5">
         <v>170935.1</v>
       </c>
-      <c r="BJ49" s="13">
+      <c r="BJ49" s="11">
         <v>206089.4</v>
       </c>
       <c r="BK49" s="5">
         <v>259176</v>
       </c>
-      <c r="BL49" s="10">
+      <c r="BL49" s="9">
         <v>299216</v>
       </c>
-      <c r="BM49" s="14">
+      <c r="BM49" s="5">
         <v>332188</v>
       </c>
       <c r="BN49" s="5">
         <v>371460.3</v>
       </c>
-      <c r="BO49" s="11">
+      <c r="BO49" s="1">
         <v>434434</v>
       </c>
-      <c r="BQ49" s="11">
+      <c r="BQ49" s="1">
         <v>68599</v>
       </c>
-      <c r="BR49" s="11">
+      <c r="BR49" s="1">
         <v>109857</v>
       </c>
     </row>
     <row r="50" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="4">
         <v>-2</v>
@@ -29638,32 +29636,32 @@
       <c r="BI50" s="5">
         <v>5.5</v>
       </c>
-      <c r="BJ50" s="13">
+      <c r="BJ50" s="11">
         <v>-3.8</v>
       </c>
-      <c r="BK50" s="14">
+      <c r="BK50" s="5">
         <v>59.4</v>
       </c>
-      <c r="BL50" s="10">
+      <c r="BL50" s="9">
         <v>7.6</v>
       </c>
-      <c r="BM50" s="14">
+      <c r="BM50" s="5">
         <v>-27.6</v>
       </c>
       <c r="BN50" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="BO50" s="11">
+      <c r="BO50" s="1">
         <v>27.8</v>
       </c>
       <c r="BQ50" s="5"/>
-      <c r="BR50" s="11">
+      <c r="BR50" s="1">
         <v>28.7</v>
       </c>
     </row>
     <row r="51" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="4">
         <v>-1.5</v>
@@ -29836,37 +29834,37 @@
       <c r="BH51" s="5">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="BI51" s="10">
+      <c r="BI51" s="9">
         <v>0.7</v>
       </c>
-      <c r="BJ51" s="13">
+      <c r="BJ51" s="11">
         <v>1.4</v>
       </c>
-      <c r="BK51" s="14">
+      <c r="BK51" s="5">
         <v>8.6</v>
       </c>
-      <c r="BL51" s="10">
+      <c r="BL51" s="9">
         <v>8.4</v>
       </c>
-      <c r="BM51" s="14">
+      <c r="BM51" s="5">
         <v>0.6</v>
       </c>
       <c r="BN51" s="5">
         <v>1.3</v>
       </c>
-      <c r="BO51" s="11">
+      <c r="BO51" s="1">
         <v>4.3</v>
       </c>
-      <c r="BQ51" s="11">
+      <c r="BQ51" s="1">
         <v>37.4</v>
       </c>
-      <c r="BR51" s="11">
+      <c r="BR51" s="1">
         <v>37.5</v>
       </c>
     </row>
     <row r="52" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="4">
         <v>9782</v>
@@ -30033,35 +30031,35 @@
       <c r="BH52" s="5">
         <v>36616</v>
       </c>
-      <c r="BI52" s="18">
+      <c r="BI52" s="15">
         <v>46144</v>
       </c>
-      <c r="BJ52" s="17">
+      <c r="BJ52" s="14">
         <v>38183</v>
       </c>
-      <c r="BK52" s="14">
+      <c r="BK52" s="5">
         <v>41261</v>
       </c>
-      <c r="BL52" s="10">
+      <c r="BL52" s="9">
         <v>43009</v>
       </c>
-      <c r="BM52" s="14">
+      <c r="BM52" s="5">
         <v>39030</v>
       </c>
       <c r="BN52" s="5">
         <v>40113</v>
       </c>
-      <c r="BO52" s="11">
+      <c r="BO52" s="1">
         <v>40457</v>
       </c>
       <c r="BQ52" s="5"/>
-      <c r="BR52" s="11">
+      <c r="BR52" s="1">
         <v>43883</v>
       </c>
     </row>
     <row r="53" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="4">
         <v>35073</v>
@@ -30234,37 +30232,37 @@
       <c r="BH53" s="5">
         <v>166091</v>
       </c>
-      <c r="BI53" s="10">
+      <c r="BI53" s="9">
         <v>202436</v>
       </c>
-      <c r="BJ53" s="17">
+      <c r="BJ53" s="14">
         <v>238041</v>
       </c>
-      <c r="BK53" s="14">
+      <c r="BK53" s="5">
         <v>277536</v>
       </c>
-      <c r="BL53" s="10">
+      <c r="BL53" s="9">
         <v>322544</v>
       </c>
-      <c r="BM53" s="14">
+      <c r="BM53" s="5">
         <v>362568</v>
       </c>
       <c r="BN53" s="5">
         <v>402638</v>
       </c>
-      <c r="BO53" s="11">
+      <c r="BO53" s="1">
         <v>443055</v>
       </c>
-      <c r="BQ53" s="11">
+      <c r="BQ53" s="1">
         <v>62036</v>
       </c>
-      <c r="BR53" s="11">
+      <c r="BR53" s="1">
         <v>103691</v>
       </c>
     </row>
     <row r="54" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="4">
         <v>57.4</v>
@@ -30425,41 +30423,41 @@
       <c r="BF54">
         <v>16.600000000000001</v>
       </c>
-      <c r="BG54" s="12">
+      <c r="BG54" s="10">
         <v>-8.4</v>
       </c>
-      <c r="BH54" s="10">
+      <c r="BH54" s="9">
         <v>-13.7</v>
       </c>
       <c r="BI54" s="5">
         <v>2.5</v>
       </c>
-      <c r="BJ54" s="13">
+      <c r="BJ54" s="11">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="BK54" s="14">
+      <c r="BK54" s="5">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="BL54" s="10">
+      <c r="BL54" s="9">
         <v>15.1</v>
       </c>
-      <c r="BM54" s="14">
+      <c r="BM54" s="5">
         <v>14.4</v>
       </c>
       <c r="BN54" s="5">
         <v>0.3</v>
       </c>
-      <c r="BO54" s="13">
+      <c r="BO54" s="11">
         <v>-9.5</v>
       </c>
       <c r="BQ54" s="5"/>
-      <c r="BR54" s="11">
+      <c r="BR54" s="1">
         <v>-5.7</v>
       </c>
     </row>
     <row r="55" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="4">
         <v>51.7</v>
@@ -30635,34 +30633,34 @@
       <c r="BI55" s="5">
         <v>-11.2</v>
       </c>
-      <c r="BJ55" s="13">
+      <c r="BJ55" s="11">
         <v>-11.5</v>
       </c>
-      <c r="BK55" s="14">
+      <c r="BK55" s="5">
         <v>-10.5</v>
       </c>
-      <c r="BL55" s="10">
+      <c r="BL55" s="9">
         <v>-7.1</v>
       </c>
-      <c r="BM55" s="14">
+      <c r="BM55" s="5">
         <v>-3.2</v>
       </c>
       <c r="BN55" s="5">
         <v>-2.6</v>
       </c>
-      <c r="BO55" s="11">
+      <c r="BO55" s="1">
         <v>-4.8</v>
       </c>
-      <c r="BQ55" s="11">
+      <c r="BQ55" s="1">
         <v>-19.2</v>
       </c>
-      <c r="BR55" s="11">
+      <c r="BR55" s="1">
         <v>-3</v>
       </c>
     </row>
     <row r="56" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="4">
         <v>1157.3</v>
@@ -30832,32 +30830,32 @@
       <c r="BI56" s="5">
         <v>1667.9</v>
       </c>
-      <c r="BJ56" s="13">
+      <c r="BJ56" s="11">
         <v>894.8</v>
       </c>
-      <c r="BK56" s="14">
+      <c r="BK56" s="5">
         <v>1174.7</v>
       </c>
-      <c r="BL56" s="10">
+      <c r="BL56" s="9">
         <v>2183.6</v>
       </c>
-      <c r="BM56" s="14">
+      <c r="BM56" s="5">
         <v>1934.4</v>
       </c>
       <c r="BN56" s="5">
         <v>1901.4</v>
       </c>
-      <c r="BO56" s="11">
+      <c r="BO56" s="1">
         <v>2616.4</v>
       </c>
       <c r="BQ56" s="5"/>
-      <c r="BR56" s="11">
+      <c r="BR56" s="1">
         <v>1826.5</v>
       </c>
     </row>
     <row r="57" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" s="4">
         <v>3754.5</v>
@@ -31027,40 +31025,40 @@
       <c r="BG57" s="5">
         <v>4448.8</v>
       </c>
-      <c r="BH57" s="10">
+      <c r="BH57" s="9">
         <v>6078.9</v>
       </c>
       <c r="BI57" s="5">
         <v>7682.4</v>
       </c>
-      <c r="BJ57" s="17">
+      <c r="BJ57" s="14">
         <v>8432.5</v>
       </c>
       <c r="BK57" s="5">
         <v>9602.1</v>
       </c>
-      <c r="BL57" s="10">
+      <c r="BL57" s="9">
         <v>11775</v>
       </c>
-      <c r="BM57" s="14">
+      <c r="BM57" s="5">
         <v>13850.4</v>
       </c>
       <c r="BN57" s="5">
         <v>15771.9</v>
       </c>
-      <c r="BO57" s="17">
+      <c r="BO57" s="14">
         <v>18376.099999999999</v>
       </c>
       <c r="BQ57" s="5">
         <v>1978.4</v>
       </c>
-      <c r="BR57" s="11">
+      <c r="BR57" s="1">
         <v>3804.5</v>
       </c>
     </row>
     <row r="58" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="4">
         <v>53.1</v>
@@ -31230,32 +31228,32 @@
       <c r="BI58" s="5">
         <v>17.7</v>
       </c>
-      <c r="BJ58" s="13">
+      <c r="BJ58" s="11">
         <v>-10.3</v>
       </c>
-      <c r="BK58" s="14">
+      <c r="BK58" s="5">
         <v>-13.2</v>
       </c>
-      <c r="BL58" s="10">
+      <c r="BL58" s="9">
         <v>73.8</v>
       </c>
-      <c r="BM58" s="14">
+      <c r="BM58" s="5">
         <v>29.1</v>
       </c>
       <c r="BN58" s="5">
         <v>12.5</v>
       </c>
-      <c r="BO58" s="17">
+      <c r="BO58" s="14">
         <v>42.2</v>
       </c>
       <c r="BQ58" s="5"/>
-      <c r="BR58" s="11">
+      <c r="BR58" s="1">
         <v>19.7</v>
       </c>
     </row>
     <row r="59" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="4">
         <v>10.9</v>
@@ -31431,34 +31429,34 @@
       <c r="BI59" s="5">
         <v>9.4</v>
       </c>
-      <c r="BJ59" s="13">
+      <c r="BJ59" s="11">
         <v>5.8</v>
       </c>
-      <c r="BK59" s="14">
+      <c r="BK59" s="5">
         <v>2.8</v>
       </c>
-      <c r="BL59" s="10">
+      <c r="BL59" s="9">
         <v>11.5</v>
       </c>
-      <c r="BM59" s="14">
+      <c r="BM59" s="5">
         <v>14.3</v>
       </c>
       <c r="BN59" s="5">
         <v>14.2</v>
       </c>
-      <c r="BO59" s="17">
+      <c r="BO59" s="14">
         <v>17.3</v>
       </c>
       <c r="BQ59" s="5">
         <v>-1.9</v>
       </c>
-      <c r="BR59" s="11">
+      <c r="BR59" s="1">
         <v>7.5</v>
       </c>
     </row>
     <row r="60" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="4">
         <v>220.9</v>
@@ -31628,32 +31626,32 @@
       <c r="BI60" s="5">
         <v>257.7</v>
       </c>
-      <c r="BJ60" s="13">
+      <c r="BJ60" s="11">
         <v>244.5</v>
       </c>
-      <c r="BK60" s="14">
+      <c r="BK60" s="5">
         <v>242.6</v>
       </c>
-      <c r="BL60" s="10">
+      <c r="BL60" s="9">
         <v>275.8</v>
       </c>
-      <c r="BM60" s="14">
+      <c r="BM60" s="5">
         <v>255.9</v>
       </c>
       <c r="BN60" s="5">
         <v>242.3</v>
       </c>
-      <c r="BO60" s="17">
+      <c r="BO60" s="14">
         <v>248.8</v>
       </c>
       <c r="BQ60" s="5"/>
-      <c r="BR60" s="11">
+      <c r="BR60" s="1">
         <v>260.8</v>
       </c>
     </row>
     <row r="61" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="4">
         <v>952.7</v>
@@ -31823,40 +31821,40 @@
       <c r="BG61" s="5">
         <v>795.3</v>
       </c>
-      <c r="BH61" s="10">
+      <c r="BH61" s="9">
         <v>994.3</v>
       </c>
       <c r="BI61" s="5">
         <v>1248.2</v>
       </c>
-      <c r="BJ61" s="13">
+      <c r="BJ61" s="11">
         <v>1500.6</v>
       </c>
-      <c r="BK61" s="14">
+      <c r="BK61" s="5">
         <v>1735.8</v>
       </c>
-      <c r="BL61" s="10">
+      <c r="BL61" s="9">
         <v>2011.8</v>
       </c>
-      <c r="BM61" s="14">
+      <c r="BM61" s="5">
         <v>2266.8000000000002</v>
       </c>
       <c r="BN61" s="5">
         <v>2500.1999999999998</v>
       </c>
-      <c r="BO61" s="17">
+      <c r="BO61" s="14">
         <v>2747.6</v>
       </c>
       <c r="BQ61" s="5">
         <v>365.3</v>
       </c>
-      <c r="BR61" s="11">
+      <c r="BR61" s="1">
         <v>625.70000000000005</v>
       </c>
     </row>
     <row r="62" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" s="4">
         <v>0.3</v>
@@ -32026,32 +32024,32 @@
       <c r="BI62" s="5">
         <v>26.8</v>
       </c>
-      <c r="BJ62" s="13">
+      <c r="BJ62" s="11">
         <v>31.5</v>
       </c>
-      <c r="BK62" s="14">
+      <c r="BK62" s="5">
         <v>39</v>
       </c>
-      <c r="BL62" s="21">
+      <c r="BL62" s="17">
         <v>25.4</v>
       </c>
-      <c r="BM62" s="14">
+      <c r="BM62" s="5">
         <v>8.6</v>
       </c>
       <c r="BN62" s="5">
         <v>-9.9</v>
       </c>
-      <c r="BO62" s="17">
+      <c r="BO62" s="14">
         <v>-16.7</v>
       </c>
       <c r="BQ62" s="5"/>
-      <c r="BR62" s="11">
+      <c r="BR62" s="1">
         <v>11.2</v>
       </c>
     </row>
     <row r="63" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="4">
         <v>6.9</v>
@@ -32227,34 +32225,34 @@
       <c r="BI63" s="5">
         <v>-2.1</v>
       </c>
-      <c r="BJ63" s="22">
+      <c r="BJ63" s="18">
         <v>2.9</v>
       </c>
-      <c r="BK63" s="14">
+      <c r="BK63" s="5">
         <v>6.1</v>
       </c>
-      <c r="BL63" s="12">
+      <c r="BL63" s="10">
         <v>8.1</v>
       </c>
-      <c r="BM63" s="14">
+      <c r="BM63" s="5">
         <v>8.1</v>
       </c>
       <c r="BN63" s="5">
         <v>5.6</v>
       </c>
-      <c r="BO63" s="17">
+      <c r="BO63" s="14">
         <v>3.4</v>
       </c>
       <c r="BQ63" s="5">
         <v>-14</v>
       </c>
-      <c r="BR63" s="11">
+      <c r="BR63" s="1">
         <v>-5.0999999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="4">
         <v>353.1</v>
@@ -32424,32 +32422,32 @@
       <c r="BI64" s="5">
         <v>306.8</v>
       </c>
-      <c r="BJ64" s="22">
+      <c r="BJ64" s="18">
         <v>228.8</v>
       </c>
-      <c r="BK64" s="14">
+      <c r="BK64" s="5">
         <v>252.9</v>
       </c>
-      <c r="BL64" s="10">
+      <c r="BL64" s="9">
         <v>240.6</v>
       </c>
-      <c r="BM64" s="14">
+      <c r="BM64" s="5">
         <v>219.1</v>
       </c>
       <c r="BN64" s="5">
         <v>234.7</v>
       </c>
-      <c r="BO64" s="17">
+      <c r="BO64" s="14">
         <v>255.9</v>
       </c>
       <c r="BQ64" s="5"/>
-      <c r="BR64" s="11">
+      <c r="BR64" s="1">
         <v>312.10000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="4">
         <v>1933.9</v>
@@ -32619,40 +32617,40 @@
       <c r="BG65" s="5">
         <v>994.7</v>
       </c>
-      <c r="BH65" s="10">
+      <c r="BH65" s="9">
         <v>1247.2</v>
       </c>
-      <c r="BI65" s="10">
+      <c r="BI65" s="9">
         <v>1554.2</v>
       </c>
-      <c r="BJ65" s="13">
+      <c r="BJ65" s="11">
         <v>1608.8</v>
       </c>
-      <c r="BK65" s="14">
+      <c r="BK65" s="5">
         <v>1858.4</v>
       </c>
-      <c r="BL65" s="10">
+      <c r="BL65" s="9">
         <v>2262.6</v>
       </c>
-      <c r="BM65" s="14">
+      <c r="BM65" s="5">
         <v>2483.3000000000002</v>
       </c>
       <c r="BN65" s="5">
         <v>2719.5</v>
       </c>
-      <c r="BO65" s="17">
+      <c r="BO65" s="14">
         <v>3001.4</v>
       </c>
       <c r="BQ65" s="5">
         <v>341.7</v>
       </c>
-      <c r="BR65" s="11">
+      <c r="BR65" s="1">
         <v>674.5</v>
       </c>
     </row>
     <row r="66" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="4">
         <v>10.6</v>
@@ -32822,32 +32820,32 @@
       <c r="BI66" s="5">
         <v>-3.9</v>
       </c>
-      <c r="BJ66" s="13">
+      <c r="BJ66" s="11">
         <v>68.2</v>
       </c>
-      <c r="BK66" s="14">
+      <c r="BK66" s="5">
         <v>35.700000000000003</v>
       </c>
-      <c r="BL66" s="10">
+      <c r="BL66" s="9">
         <v>-6.1</v>
       </c>
-      <c r="BM66" s="10">
+      <c r="BM66" s="9">
         <v>-19</v>
       </c>
       <c r="BN66" s="5">
         <v>-31.3</v>
       </c>
-      <c r="BO66" s="17">
+      <c r="BO66" s="14">
         <v>-7.8</v>
       </c>
       <c r="BQ66" s="5"/>
-      <c r="BR66" s="12">
+      <c r="BR66" s="10">
         <v>13.6</v>
       </c>
     </row>
     <row r="67" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="4">
         <v>31.4</v>
@@ -33020,37 +33018,37 @@
       <c r="BH67" s="5">
         <v>-13.1</v>
       </c>
-      <c r="BI67" s="12">
+      <c r="BI67" s="10">
         <v>-11.1</v>
       </c>
-      <c r="BJ67" s="13">
+      <c r="BJ67" s="11">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="BK67" s="14">
+      <c r="BK67" s="5">
         <v>1.4</v>
       </c>
-      <c r="BL67" s="10">
+      <c r="BL67" s="9">
         <v>-0.8</v>
       </c>
-      <c r="BM67" s="14">
+      <c r="BM67" s="5">
         <v>-2.1</v>
       </c>
       <c r="BN67" s="5">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="BO67" s="17">
+      <c r="BO67" s="14">
         <v>-4.5</v>
       </c>
       <c r="BQ67" s="5">
         <v>-21.9</v>
       </c>
-      <c r="BR67" s="11">
+      <c r="BR67" s="1">
         <v>-7.9</v>
       </c>
     </row>
     <row r="68" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="4">
         <v>627.4</v>
@@ -33217,35 +33215,35 @@
       <c r="BH68" s="5">
         <v>679.5</v>
       </c>
-      <c r="BI68" s="18">
+      <c r="BI68" s="15">
         <v>660.6</v>
       </c>
-      <c r="BJ68" s="13">
+      <c r="BJ68" s="11">
         <v>657.7</v>
       </c>
-      <c r="BK68" s="14">
+      <c r="BK68" s="5">
         <v>690.5</v>
       </c>
-      <c r="BL68" s="10">
+      <c r="BL68" s="9">
         <v>870.3</v>
       </c>
-      <c r="BM68" s="14">
+      <c r="BM68" s="5">
         <v>880.6</v>
       </c>
       <c r="BN68" s="5">
         <v>953.1</v>
       </c>
-      <c r="BO68" s="17">
+      <c r="BO68" s="14">
         <v>836.4</v>
       </c>
       <c r="BQ68" s="5"/>
-      <c r="BR68" s="11">
+      <c r="BR68" s="1">
         <v>907</v>
       </c>
     </row>
     <row r="69" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="4">
         <v>2555.6999999999998</v>
@@ -33418,37 +33416,37 @@
       <c r="BH69" s="5">
         <v>3471.7</v>
       </c>
-      <c r="BI69" s="10">
+      <c r="BI69" s="9">
         <v>4113.3</v>
       </c>
-      <c r="BJ69" s="13">
+      <c r="BJ69" s="11">
         <v>4769</v>
       </c>
-      <c r="BK69" s="14">
+      <c r="BK69" s="5">
         <v>5460.5</v>
       </c>
-      <c r="BL69" s="10">
+      <c r="BL69" s="9">
         <v>6424.9</v>
       </c>
-      <c r="BM69" s="14">
+      <c r="BM69" s="5">
         <v>7318</v>
       </c>
       <c r="BN69" s="5">
         <v>8271.1</v>
       </c>
-      <c r="BO69" s="17">
+      <c r="BO69" s="14">
         <v>9106.2999999999993</v>
       </c>
       <c r="BQ69" s="5">
         <v>1408</v>
       </c>
-      <c r="BR69" s="11">
+      <c r="BR69" s="1">
         <v>2295.3000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="4">
         <v>4.2</v>
@@ -33615,35 +33613,35 @@
       <c r="BH70" s="5">
         <v>-3.3</v>
       </c>
-      <c r="BI70" s="12">
+      <c r="BI70" s="10">
         <v>-0.7</v>
       </c>
-      <c r="BJ70" s="13">
+      <c r="BJ70" s="11">
         <v>5.6</v>
       </c>
-      <c r="BK70" s="14">
+      <c r="BK70" s="5">
         <v>2.5</v>
       </c>
-      <c r="BL70" s="10">
+      <c r="BL70" s="9">
         <v>24.4</v>
       </c>
-      <c r="BM70" s="14">
+      <c r="BM70" s="5">
         <v>12.9</v>
       </c>
       <c r="BN70" s="5">
         <v>12.9</v>
       </c>
-      <c r="BO70" s="17">
+      <c r="BO70" s="14">
         <v>5.4</v>
       </c>
       <c r="BQ70" s="5"/>
-      <c r="BR70" s="11">
+      <c r="BR70" s="1">
         <v>18.8</v>
       </c>
     </row>
     <row r="71" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="4">
         <v>4.8</v>
@@ -33819,34 +33817,34 @@
       <c r="BI71" s="5">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="BJ71" s="13">
+      <c r="BJ71" s="11">
         <v>-2.9</v>
       </c>
-      <c r="BK71" s="14">
+      <c r="BK71" s="5">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="BL71" s="10">
+      <c r="BL71" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BM71" s="14">
+      <c r="BM71" s="5">
         <v>3.7</v>
       </c>
       <c r="BN71" s="5">
         <v>4.5</v>
       </c>
-      <c r="BO71" s="17">
+      <c r="BO71" s="14">
         <v>4.5999999999999996</v>
       </c>
       <c r="BQ71" s="5">
         <v>1.8</v>
       </c>
-      <c r="BR71" s="20">
+      <c r="BR71" s="16">
         <v>6.9</v>
       </c>
     </row>
     <row r="72" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="4">
         <v>834.4</v>
@@ -34016,32 +34014,32 @@
       <c r="BI72" s="5">
         <v>734.4</v>
       </c>
-      <c r="BJ72" s="15">
+      <c r="BJ72" s="12">
         <v>728.8</v>
       </c>
-      <c r="BK72" s="14">
+      <c r="BK72" s="5">
         <v>702.3</v>
       </c>
-      <c r="BL72" s="10">
+      <c r="BL72" s="9">
         <v>799.5</v>
       </c>
-      <c r="BM72" s="14">
+      <c r="BM72" s="5">
         <v>690</v>
       </c>
       <c r="BN72" s="5">
         <v>758.6</v>
       </c>
-      <c r="BO72" s="17">
+      <c r="BO72" s="14">
         <v>745.1</v>
       </c>
       <c r="BQ72" s="5"/>
-      <c r="BR72" s="11">
+      <c r="BR72" s="1">
         <v>936.3</v>
       </c>
     </row>
     <row r="73" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="4">
         <v>3100.6</v>
@@ -34217,22 +34215,22 @@
       <c r="BI73" s="5">
         <v>4164.2</v>
       </c>
-      <c r="BJ73" s="13">
+      <c r="BJ73" s="11">
         <v>4881.7</v>
       </c>
-      <c r="BK73" s="14">
+      <c r="BK73" s="5">
         <v>5591</v>
       </c>
-      <c r="BL73" s="12">
+      <c r="BL73" s="10">
         <v>6433.1</v>
       </c>
-      <c r="BM73" s="14">
+      <c r="BM73" s="5">
         <v>7159</v>
       </c>
       <c r="BN73" s="5">
         <v>7917.5</v>
       </c>
-      <c r="BO73" s="17">
+      <c r="BO73" s="14">
         <v>8664.4</v>
       </c>
       <c r="BQ73" s="5">
@@ -34244,7 +34242,7 @@
     </row>
     <row r="74" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="4">
         <v>3.1</v>
@@ -34414,32 +34412,32 @@
       <c r="BI74" s="5">
         <v>-0.8</v>
       </c>
-      <c r="BJ74" s="13">
+      <c r="BJ74" s="11">
         <v>-2.1</v>
       </c>
-      <c r="BK74" s="14">
+      <c r="BK74" s="5">
         <v>-5.5</v>
       </c>
-      <c r="BL74" s="12">
+      <c r="BL74" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BM74" s="14">
+      <c r="BM74" s="5">
         <v>-9.6999999999999993</v>
       </c>
       <c r="BN74" s="5">
         <v>-7</v>
       </c>
-      <c r="BO74" s="17">
+      <c r="BO74" s="14">
         <v>-5</v>
       </c>
       <c r="BQ74" s="5"/>
-      <c r="BR74" s="11">
+      <c r="BR74" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="4">
         <v>12.4</v>
@@ -34615,34 +34613,34 @@
       <c r="BI75" s="5">
         <v>-6.2</v>
       </c>
-      <c r="BJ75" s="13">
+      <c r="BJ75" s="11">
         <v>-5.9</v>
       </c>
-      <c r="BK75" s="14">
+      <c r="BK75" s="5">
         <v>-5.7</v>
       </c>
-      <c r="BL75" s="12">
+      <c r="BL75" s="10">
         <v>-3.1</v>
       </c>
-      <c r="BM75" s="14">
+      <c r="BM75" s="5">
         <v>-3.3</v>
       </c>
       <c r="BN75" s="5">
         <v>-3.7</v>
       </c>
-      <c r="BO75" s="17">
+      <c r="BO75" s="14">
         <v>-3.6</v>
       </c>
       <c r="BQ75" s="5">
         <v>7.9</v>
       </c>
-      <c r="BR75" s="11">
+      <c r="BR75" s="1">
         <v>8.4</v>
       </c>
     </row>
     <row r="76" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4">
         <v>1950.2</v>
@@ -34812,32 +34810,32 @@
       <c r="BI76" s="5">
         <v>2221.4</v>
       </c>
-      <c r="BJ76" s="13">
+      <c r="BJ76" s="11">
         <v>1829.9</v>
       </c>
-      <c r="BK76" s="14">
+      <c r="BK76" s="5">
         <v>1607.2</v>
       </c>
-      <c r="BL76" s="10">
+      <c r="BL76" s="9">
         <v>1858</v>
       </c>
-      <c r="BM76" s="14">
+      <c r="BM76" s="5">
         <v>1443.2</v>
       </c>
       <c r="BN76" s="5">
         <v>1513.2</v>
       </c>
-      <c r="BO76" s="17">
+      <c r="BO76" s="14">
         <v>1770.5</v>
       </c>
       <c r="BQ76" s="5"/>
-      <c r="BR76" s="11">
+      <c r="BR76" s="1">
         <v>2930.7</v>
       </c>
     </row>
     <row r="77" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77" s="4">
         <v>6357.9</v>
@@ -35013,34 +35011,34 @@
       <c r="BI77" s="5">
         <v>12248.9</v>
       </c>
-      <c r="BJ77" s="17">
+      <c r="BJ77" s="14">
         <v>14078.8</v>
       </c>
       <c r="BK77" s="5">
         <v>15722.1</v>
       </c>
-      <c r="BL77" s="12">
+      <c r="BL77" s="10">
         <v>17491.5</v>
       </c>
-      <c r="BM77" s="14">
+      <c r="BM77" s="5">
         <v>18959.5</v>
       </c>
       <c r="BN77" s="5">
         <v>20449.400000000001</v>
       </c>
-      <c r="BO77" s="17">
+      <c r="BO77" s="14">
         <v>22247.3</v>
       </c>
       <c r="BQ77" s="5">
         <v>3330.5</v>
       </c>
-      <c r="BR77" s="11">
+      <c r="BR77" s="1">
         <v>6260.1</v>
       </c>
     </row>
     <row r="78" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="4">
         <v>20.5</v>
@@ -35210,32 +35208,32 @@
       <c r="BI78" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="BJ78" s="13">
+      <c r="BJ78" s="11">
         <v>0.6</v>
       </c>
       <c r="BK78" s="5">
         <v>6.1</v>
       </c>
-      <c r="BL78" s="10">
+      <c r="BL78" s="9">
         <v>20.9</v>
       </c>
-      <c r="BM78" s="14">
+      <c r="BM78" s="5">
         <v>-3.3</v>
       </c>
       <c r="BN78" s="5">
         <v>-10.7</v>
       </c>
-      <c r="BO78" s="17">
+      <c r="BO78" s="14">
         <v>-9.9</v>
       </c>
       <c r="BQ78" s="5"/>
-      <c r="BR78" s="11">
+      <c r="BR78" s="1">
         <v>13.2</v>
       </c>
     </row>
     <row r="79" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="4">
         <v>17.600000000000001</v>
@@ -35411,34 +35409,34 @@
       <c r="BI79" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BJ79" s="17">
+      <c r="BJ79" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="BK79" s="5">
         <v>1.9</v>
       </c>
-      <c r="BL79" s="10">
+      <c r="BL79" s="9">
         <v>3.5</v>
       </c>
-      <c r="BM79" s="14">
+      <c r="BM79" s="5">
         <v>3.2</v>
       </c>
       <c r="BN79" s="5">
         <v>2</v>
       </c>
-      <c r="BO79" s="17">
+      <c r="BO79" s="14">
         <v>1.8</v>
       </c>
       <c r="BQ79" s="5">
         <v>10.8</v>
       </c>
-      <c r="BR79" s="20">
+      <c r="BR79" s="16">
         <v>12.6</v>
       </c>
     </row>
     <row r="80" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="4">
         <v>1273.9000000000001</v>
@@ -35608,32 +35606,32 @@
       <c r="BI80" s="5">
         <v>1552.5</v>
       </c>
-      <c r="BJ80" s="16">
+      <c r="BJ80" s="13">
         <v>1650</v>
       </c>
       <c r="BK80" s="5">
         <v>1802.1</v>
       </c>
-      <c r="BL80" s="12">
+      <c r="BL80" s="10">
         <v>2096.9</v>
       </c>
-      <c r="BM80" s="14">
+      <c r="BM80" s="5">
         <v>1926.2</v>
       </c>
       <c r="BN80" s="5">
         <v>1783.1</v>
       </c>
-      <c r="BO80" s="17">
+      <c r="BO80" s="14">
         <v>1727.3</v>
       </c>
       <c r="BQ80" s="5"/>
-      <c r="BR80" s="11">
+      <c r="BR80" s="1">
         <v>1869</v>
       </c>
     </row>
     <row r="81" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="4">
         <v>4886.8999999999996</v>
@@ -35809,34 +35807,34 @@
       <c r="BI81" s="5">
         <v>8986.4</v>
       </c>
-      <c r="BJ81" s="17">
+      <c r="BJ81" s="14">
         <v>10636.4</v>
       </c>
       <c r="BK81" s="5">
         <v>12174.1</v>
       </c>
-      <c r="BL81" s="10">
+      <c r="BL81" s="9">
         <v>14229.2</v>
       </c>
-      <c r="BM81" s="14">
+      <c r="BM81" s="5">
         <v>16139.6</v>
       </c>
-      <c r="BN81" s="10">
+      <c r="BN81" s="9">
         <v>17851.3</v>
       </c>
-      <c r="BO81" s="17">
+      <c r="BO81" s="14">
         <v>19578.3</v>
       </c>
       <c r="BQ81" s="5">
         <v>2424.5</v>
       </c>
-      <c r="BR81" s="11">
+      <c r="BR81" s="1">
         <v>4363.2</v>
       </c>
     </row>
     <row r="82" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="4">
         <v>-11.6</v>
@@ -36006,32 +36004,32 @@
       <c r="BI82" s="5">
         <v>13.3</v>
       </c>
-      <c r="BJ82" s="13">
+      <c r="BJ82" s="11">
         <v>25.6</v>
       </c>
       <c r="BK82" s="5">
         <v>16.5</v>
       </c>
-      <c r="BL82" s="10">
+      <c r="BL82" s="9">
         <v>20.399999999999999</v>
       </c>
-      <c r="BM82" s="14">
+      <c r="BM82" s="5">
         <v>9.1999999999999993</v>
       </c>
       <c r="BN82" s="5">
         <v>1.2</v>
       </c>
-      <c r="BO82" s="17">
+      <c r="BO82" s="14">
         <v>-8.3000000000000007</v>
       </c>
       <c r="BQ82" s="5"/>
-      <c r="BR82" s="11">
+      <c r="BR82" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="83" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83" s="4">
         <v>-7.9</v>
@@ -36201,40 +36199,40 @@
       <c r="BG83" s="5">
         <v>3.8</v>
       </c>
-      <c r="BH83" s="10">
+      <c r="BH83" s="9">
         <v>4.5</v>
       </c>
       <c r="BI83" s="5">
         <v>5.8</v>
       </c>
-      <c r="BJ83" s="13">
+      <c r="BJ83" s="11">
         <v>8.5</v>
       </c>
       <c r="BK83" s="5">
         <v>7.2</v>
       </c>
-      <c r="BL83" s="10">
+      <c r="BL83" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="BM83" s="14">
+      <c r="BM83" s="5">
         <v>9.1</v>
       </c>
       <c r="BN83" s="5">
         <v>7.8</v>
       </c>
-      <c r="BO83" s="17">
+      <c r="BO83" s="14">
         <v>6.4</v>
       </c>
       <c r="BQ83" s="5">
         <v>-4.7</v>
       </c>
-      <c r="BR83" s="11">
+      <c r="BR83" s="1">
         <v>-0.9</v>
       </c>
     </row>
     <row r="84" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B84" s="4">
         <v>2598.8000000000002</v>
@@ -36398,38 +36396,38 @@
       <c r="BG84" s="5">
         <v>3266.3</v>
       </c>
-      <c r="BH84" s="18">
+      <c r="BH84" s="15">
         <v>3673</v>
       </c>
       <c r="BI84" s="5">
         <v>4334.2</v>
       </c>
-      <c r="BJ84" s="13">
+      <c r="BJ84" s="11">
         <v>3567.2</v>
       </c>
       <c r="BK84" s="5">
         <v>3302.4</v>
       </c>
-      <c r="BL84" s="12">
+      <c r="BL84" s="10">
         <v>3985.3</v>
       </c>
-      <c r="BM84" s="14">
+      <c r="BM84" s="5">
         <v>3627.7</v>
       </c>
       <c r="BN84" s="5">
         <v>3220.6</v>
       </c>
-      <c r="BO84" s="17">
+      <c r="BO84" s="14">
         <v>3806.4</v>
       </c>
       <c r="BQ84" s="5"/>
-      <c r="BR84" s="11">
+      <c r="BR84" s="1">
         <v>3499.7</v>
       </c>
     </row>
     <row r="85" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" s="4">
         <v>10172.5</v>
@@ -36605,34 +36603,34 @@
       <c r="BI85" s="5">
         <v>22334.1</v>
       </c>
-      <c r="BJ85" s="17">
+      <c r="BJ85" s="14">
         <v>25890.2</v>
       </c>
       <c r="BK85" s="5">
         <v>29267.7</v>
       </c>
-      <c r="BL85" s="10">
+      <c r="BL85" s="9">
         <v>33113.199999999997</v>
       </c>
-      <c r="BM85" s="14">
+      <c r="BM85" s="5">
         <v>36741.699999999997</v>
       </c>
       <c r="BN85" s="5">
         <v>39936</v>
       </c>
-      <c r="BO85" s="17">
+      <c r="BO85" s="14">
         <v>45314.8</v>
       </c>
       <c r="BQ85" s="5">
         <v>4785.7</v>
       </c>
-      <c r="BR85" s="11">
+      <c r="BR85" s="1">
         <v>8343.4</v>
       </c>
     </row>
     <row r="86" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="4">
         <v>-0.7</v>
@@ -36796,38 +36794,38 @@
       <c r="BG86" s="5">
         <v>-14.4</v>
       </c>
-      <c r="BH86" s="10">
+      <c r="BH86" s="9">
         <v>-4.5</v>
       </c>
       <c r="BI86" s="5">
         <v>-0.5</v>
       </c>
-      <c r="BJ86" s="13">
+      <c r="BJ86" s="11">
         <v>-5.6</v>
       </c>
       <c r="BK86" s="5">
         <v>-18.7</v>
       </c>
-      <c r="BL86" s="10">
+      <c r="BL86" s="9">
         <v>-13</v>
       </c>
-      <c r="BM86" s="14">
+      <c r="BM86" s="5">
         <v>-17</v>
       </c>
       <c r="BN86" s="5">
         <v>-28</v>
       </c>
-      <c r="BO86" s="13">
+      <c r="BO86" s="11">
         <v>-19.3</v>
       </c>
       <c r="BQ86" s="5"/>
-      <c r="BR86" s="11">
+      <c r="BR86" s="1">
         <v>-19.399999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" s="4">
         <v>-1.7</v>
@@ -37003,16 +37001,16 @@
       <c r="BI87" s="5">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="BJ87" s="13">
+      <c r="BJ87" s="11">
         <v>-4.4000000000000004</v>
       </c>
       <c r="BK87" s="5">
         <v>-6.1</v>
       </c>
-      <c r="BL87" s="10">
+      <c r="BL87" s="9">
         <v>-7.3</v>
       </c>
-      <c r="BM87" s="14">
+      <c r="BM87" s="5">
         <v>-8.3000000000000007</v>
       </c>
       <c r="BN87" s="5">
@@ -37021,16 +37019,16 @@
       <c r="BO87" s="1">
         <v>-8.1</v>
       </c>
-      <c r="BQ87" s="11">
+      <c r="BQ87" s="1">
         <v>-23.5</v>
       </c>
-      <c r="BR87" s="11">
+      <c r="BR87" s="1">
         <v>-21.9</v>
       </c>
     </row>
     <row r="88" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B88" s="4">
         <v>129.4</v>
@@ -37200,32 +37198,32 @@
       <c r="BI88" s="5">
         <v>288</v>
       </c>
-      <c r="BJ88" s="17">
+      <c r="BJ88" s="14">
         <v>272.2</v>
       </c>
       <c r="BK88" s="5">
         <v>247.4</v>
       </c>
-      <c r="BL88" s="10">
+      <c r="BL88" s="9">
         <v>261.39999999999998</v>
       </c>
-      <c r="BM88" s="14">
+      <c r="BM88" s="5">
         <v>224.8</v>
       </c>
       <c r="BN88" s="5">
         <v>260.3</v>
       </c>
-      <c r="BO88" s="24">
+      <c r="BO88" s="14">
         <v>284.10000000000002</v>
       </c>
       <c r="BQ88" s="5"/>
-      <c r="BR88" s="11">
+      <c r="BR88" s="1">
         <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B89" s="4">
         <v>463</v>
@@ -37401,34 +37399,34 @@
       <c r="BI89" s="5">
         <v>1660.8</v>
       </c>
-      <c r="BJ89" s="13">
+      <c r="BJ89" s="11">
         <v>1938</v>
       </c>
       <c r="BK89" s="5">
         <v>2181</v>
       </c>
-      <c r="BL89" s="12">
+      <c r="BL89" s="10">
         <v>2450.1</v>
       </c>
-      <c r="BM89" s="10">
+      <c r="BM89" s="9">
         <v>2674.9</v>
       </c>
       <c r="BN89" s="5">
         <v>2958</v>
       </c>
-      <c r="BO89" s="24">
+      <c r="BO89" s="14">
         <v>3241.9</v>
       </c>
       <c r="BQ89" s="5">
         <v>443</v>
       </c>
-      <c r="BR89" s="11">
+      <c r="BR89" s="1">
         <v>722</v>
       </c>
     </row>
     <row r="90" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="4">
         <v>26.2</v>
@@ -37598,32 +37596,32 @@
       <c r="BI90" s="5">
         <v>-10.4</v>
       </c>
-      <c r="BJ90" s="13">
+      <c r="BJ90" s="11">
         <v>-16.600000000000001</v>
       </c>
       <c r="BK90" s="5">
         <v>-24.7</v>
       </c>
-      <c r="BL90" s="12">
+      <c r="BL90" s="10">
         <v>-16.399999999999999</v>
       </c>
-      <c r="BM90" s="10">
+      <c r="BM90" s="9">
         <v>-26.7</v>
       </c>
       <c r="BN90" s="5">
         <v>-15.2</v>
       </c>
-      <c r="BO90" s="24">
+      <c r="BO90" s="14">
         <v>-7.1</v>
       </c>
       <c r="BQ90" s="5"/>
-      <c r="BR90" s="11">
+      <c r="BR90" s="1">
         <v>-3</v>
       </c>
     </row>
     <row r="91" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="4">
         <v>25.4</v>
@@ -37799,34 +37797,34 @@
       <c r="BI91" s="5">
         <v>-6.3</v>
       </c>
-      <c r="BJ91" s="13">
+      <c r="BJ91" s="11">
         <v>-8</v>
       </c>
       <c r="BK91" s="5">
         <v>-10</v>
       </c>
-      <c r="BL91" s="12">
+      <c r="BL91" s="10">
         <v>-10.8</v>
       </c>
-      <c r="BM91" s="14">
+      <c r="BM91" s="5">
         <v>-12.3</v>
       </c>
       <c r="BN91" s="5">
         <v>-12</v>
       </c>
-      <c r="BO91" s="24">
+      <c r="BO91" s="14">
         <v>-11.6</v>
       </c>
       <c r="BQ91" s="5">
         <v>-17</v>
       </c>
-      <c r="BR91" s="11">
+      <c r="BR91" s="1">
         <v>-14.8</v>
       </c>
     </row>
     <row r="92" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" s="4">
         <v>15214.9</v>
@@ -37996,32 +37994,32 @@
       <c r="BI92" s="5">
         <v>13612.4</v>
       </c>
-      <c r="BJ92" s="17">
+      <c r="BJ92" s="14">
         <v>12049.7</v>
       </c>
       <c r="BK92" s="5">
         <v>12771.7</v>
       </c>
-      <c r="BL92" s="12">
+      <c r="BL92" s="10">
         <v>15584.1</v>
       </c>
-      <c r="BM92" s="10">
+      <c r="BM92" s="9">
         <v>15413.5</v>
       </c>
       <c r="BN92" s="5">
         <v>14169.8</v>
       </c>
-      <c r="BO92" s="24">
+      <c r="BO92" s="14">
         <v>14310.3</v>
       </c>
       <c r="BQ92" s="5"/>
-      <c r="BR92" s="11">
+      <c r="BR92" s="1">
         <v>14216.5</v>
       </c>
     </row>
     <row r="93" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" s="4">
         <v>60762.7</v>
@@ -38191,40 +38189,40 @@
       <c r="BG93" s="5">
         <v>48071.5</v>
       </c>
-      <c r="BH93" s="10">
+      <c r="BH93" s="9">
         <v>60871.4</v>
       </c>
       <c r="BI93" s="5">
         <v>74369.2</v>
       </c>
-      <c r="BJ93" s="13">
+      <c r="BJ93" s="11">
         <v>86309.9</v>
       </c>
       <c r="BK93" s="5">
         <v>98962.5</v>
       </c>
-      <c r="BL93" s="10">
+      <c r="BL93" s="9">
         <v>114828.3</v>
       </c>
-      <c r="BM93" s="23">
+      <c r="BM93" s="19">
         <v>130349.5</v>
       </c>
       <c r="BN93" s="5">
         <v>144835.6</v>
       </c>
-      <c r="BO93" s="24">
+      <c r="BO93" s="14">
         <v>156080</v>
       </c>
       <c r="BQ93" s="5">
         <v>20371.400000000001</v>
       </c>
-      <c r="BR93" s="11">
+      <c r="BR93" s="1">
         <v>33057.5</v>
       </c>
     </row>
     <row r="94" spans="1:70" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="4">
         <v>4.0999999999999996</v>
@@ -38382,7 +38380,7 @@
       <c r="BE94">
         <v>0</v>
       </c>
-      <c r="BF94" s="9">
+      <c r="BF94">
         <v>2.8</v>
       </c>
       <c r="BG94" s="5">
@@ -38394,32 +38392,32 @@
       <c r="BI94" s="5">
         <v>-6.3</v>
       </c>
-      <c r="BJ94" s="13">
+      <c r="BJ94" s="11">
         <v>-7.2</v>
       </c>
-      <c r="BK94" s="14">
+      <c r="BK94" s="5">
         <v>-8</v>
       </c>
-      <c r="BL94" s="12">
+      <c r="BL94" s="10">
         <v>-0.6</v>
       </c>
-      <c r="BM94" s="23">
+      <c r="BM94" s="19">
         <v>6.5</v>
       </c>
       <c r="BN94" s="5">
         <v>-13</v>
       </c>
-      <c r="BO94" s="24">
+      <c r="BO94" s="14">
         <v>-18.399999999999999</v>
       </c>
       <c r="BQ94" s="5"/>
-      <c r="BR94" s="11">
+      <c r="BR94" s="1">
         <v>-0.7</v>
       </c>
     </row>
     <row r="95" spans="1:70" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B95" s="4">
         <v>9.8000000000000007</v>
@@ -38583,40 +38581,40 @@
       <c r="BE95">
         <v>-3.5</v>
       </c>
-      <c r="BF95" s="9">
+      <c r="BF95">
         <v>-0.8</v>
       </c>
       <c r="BG95" s="5">
         <v>-1.3</v>
       </c>
-      <c r="BH95" s="10">
+      <c r="BH95" s="9">
         <v>-1.7</v>
       </c>
       <c r="BI95" s="5">
         <v>-2.7</v>
       </c>
-      <c r="BJ95" s="13">
+      <c r="BJ95" s="11">
         <v>-3.6</v>
       </c>
-      <c r="BK95" s="14">
+      <c r="BK95" s="5">
         <v>-4.5</v>
       </c>
-      <c r="BL95" s="10">
+      <c r="BL95" s="9">
         <v>-3.5</v>
       </c>
-      <c r="BM95" s="23">
+      <c r="BM95" s="19">
         <v>-3.5</v>
       </c>
       <c r="BN95" s="5">
         <v>-2.8</v>
       </c>
-      <c r="BO95" s="24">
+      <c r="BO95" s="14">
         <v>-6.2</v>
       </c>
       <c r="BQ95" s="5">
         <v>-4.8</v>
       </c>
-      <c r="BR95" s="11">
+      <c r="BR95" s="1">
         <v>-7</v>
       </c>
     </row>
